--- a/Tributyl phosphate.xlsx
+++ b/Tributyl phosphate.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N-(Phthalimidomethyl)acrylamide</t>
+          <t>Tributyl phosphate</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,7 +482,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>N-(n-Octadecyl)acrylamide</t>
+          <t>Amgard TBPO4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIACETONE ACRYLAMIDE (DAAM)</t>
+          <t>CAPFLA TBP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chemzymes Ultra Pure® Acrylamide</t>
+          <t>Santicizer® 130</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N-Hydroxyethyl acrylamide, 98%</t>
+          <t>Phosflex® 4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,7 +574,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>N-[3-(N,N-Dimethylamino)-propyl] acrylamide</t>
+          <t>PVC Lubricant L-60</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kohshylmer® NIPAM™ (N -Isopropyl acrylamide)</t>
+          <t>PVC Lubricant L-74</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nile Blue Acrylamide</t>
+          <t>PVC Internal Lubricant TL-60</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kohshylmer® DMAA™ (N,N -Dimethyl acrylamide)</t>
+          <t>PVC External Lubricant TL-74</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Diacetone acrylamide</t>
+          <t>Donglin™ DL-60</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kohshylmer® DEAA™ (N,N -Diethyl acrylamide)</t>
+          <t>Donglin™ DL-74</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">

--- a/Tributyl phosphate.xlsx
+++ b/Tributyl phosphate.xlsx
@@ -475,7 +475,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Bioplastic &gt; Cellulosic polymer
+Natural Rubber
+Aerospace/ Aircrafts
+Fibers/ Textiles/ Carpets
+Safety, regulation &amp; environment &gt; Flame retardancy</t>
         </is>
       </c>
     </row>
@@ -497,7 +501,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Safety, regulation &amp; environment &gt; Flame retardancy</t>
         </is>
       </c>
     </row>
@@ -543,7 +547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Safety, regulation &amp; environment &gt; Flame retardancy</t>
         </is>
       </c>
     </row>
@@ -567,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Safety, regulation &amp; environment &gt; Flame retardancy</t>
         </is>
       </c>
     </row>
@@ -589,7 +593,9 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PVC &gt; PVC, rigid
+Pipes, Hoses &amp; Fittings &gt; Pipes
+Buildings &amp; constructions &gt; Windows (incl. window profiles)</t>
         </is>
       </c>
     </row>
@@ -611,7 +617,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PVC &gt; PVC, flexible
+PVC &gt; PVC, rigid
+Pipes, Hoses &amp; Fittings &gt; Pipes
+Buildings &amp; constructions &gt; Windows (incl. window profiles)
+Calendering</t>
         </is>
       </c>
     </row>
@@ -633,7 +643,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PVC &gt; PVC, rigid
+Buildings &amp; constructions &gt; Windows (incl. window profiles)
+Pipes, Hoses &amp; Fittings &gt; Pipes
+Transparent sheets Granules Sections Sheets
+Mechanical/ physical performance &gt; Impact resistance
+Visual aspect &amp; aesthetics &gt; Gloss effect
+Transparent sheets Granules Sections Sheets</t>
         </is>
       </c>
     </row>
@@ -655,7 +671,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PVC &gt; PVC, flexible
+PVC &gt; PVC, rigid
+Transparent sheets Planks Shrink Film Calendered Film
+Calendering
+Polymer Conversion &gt; Flow improvement
+Visual aspect &amp; aesthetics &gt; Gloss effect
+Transparent sheets Planks Shrink Film Calendered Film</t>
         </is>
       </c>
     </row>
@@ -677,7 +699,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PVC
+Buildings &amp; constructions &gt; Fencing
+Buildings &amp; constructions &gt; Doors
+Buildings &amp; constructions &gt; Windows (incl. window profiles)
+Polymer Conversion &gt; Dispersion
+Polymer Conversion &gt; Lubrication/ slip
+Polymer Conversion &gt; Flow improvement</t>
         </is>
       </c>
     </row>
@@ -699,7 +727,10 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PVC
+Polymer Conversion &gt; Flow improvement
+Polymer Conversion &gt; Dispersion
+Polymer Conversion &gt; Lubrication/ slip</t>
         </is>
       </c>
     </row>
